--- a/data/trans_orig/P79_n_R3-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R3-Clase-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5140</v>
+        <v>6372</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002157414136550465</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009335455999634534</v>
+        <v>0.01157291153002609</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3499</v>
+        <v>3501</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001437927126675099</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.007163549758668784</v>
+        <v>0.007167391229282594</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6541</v>
+        <v>7332</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001819208719363337</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006295474002312475</v>
+        <v>0.00705612497254446</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>7661</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3316</v>
+        <v>3418</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15158</v>
+        <v>14581</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01391290007552462</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006022074182142343</v>
+        <v>0.006207509167430394</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02752980168413363</v>
+        <v>0.02648188254327258</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>5647</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2549</v>
+        <v>2416</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11974</v>
+        <v>11861</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0115615554664972</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005219349215626481</v>
+        <v>0.004947300422168871</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02451668667134523</v>
+        <v>0.02428444228022586</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -854,19 +854,19 @@
         <v>13307</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7405</v>
+        <v>7309</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22226</v>
+        <v>21872</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01280761606965414</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007127164346339925</v>
+        <v>0.007034732254813808</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02139106308135828</v>
+        <v>0.02105080389574517</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>32159</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21753</v>
+        <v>21893</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46612</v>
+        <v>46526</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05840464857327814</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03950636370004523</v>
+        <v>0.03976116511593539</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08465378900072207</v>
+        <v>0.08449810014600947</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -904,19 +904,19 @@
         <v>25907</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17887</v>
+        <v>18397</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35972</v>
+        <v>35711</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.05304310306412931</v>
+        <v>0.05304310306412929</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03662198114912259</v>
+        <v>0.03766791761740945</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07365183215479496</v>
+        <v>0.0731156944500278</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>61</v>
@@ -925,19 +925,19 @@
         <v>58065</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44946</v>
+        <v>45079</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>77368</v>
+        <v>75568</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05588437550260301</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04325739924841763</v>
+        <v>0.04338557653867875</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.074461364669911</v>
+        <v>0.07272919455969563</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>509611</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>495004</v>
+        <v>494328</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>521478</v>
+        <v>521763</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9255250372146467</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8989974745853387</v>
+        <v>0.8977687583257412</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9470768102615071</v>
+        <v>0.9475955184144843</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>645</v>
@@ -975,19 +975,19 @@
         <v>456155</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>445834</v>
+        <v>445915</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>464912</v>
+        <v>465128</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9339574143426985</v>
+        <v>0.9339574143426984</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9128256916745754</v>
+        <v>0.9129914952054847</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9518875013920509</v>
+        <v>0.9523280711643404</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1163</v>
@@ -996,19 +996,19 @@
         <v>965766</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>945347</v>
+        <v>946959</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>980831</v>
+        <v>980685</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9294887997083796</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9098369786471243</v>
+        <v>0.9113886141775708</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.943987682266177</v>
+        <v>0.9438475511935622</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>3408</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10452</v>
+        <v>9256</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.007053096066995429</v>
+        <v>0.007053096066995428</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001890313610757835</v>
+        <v>0.00185498624234836</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02163074931958031</v>
+        <v>0.01915418190106993</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>3408</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10290</v>
+        <v>10282</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003760272397734853</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0009838410790484814</v>
+        <v>0.0009910357183572484</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01135287222898958</v>
+        <v>0.01134477831461509</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>6013</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2383</v>
+        <v>2425</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12991</v>
+        <v>13638</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01244377937746849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004932044884107696</v>
+        <v>0.00501819185369826</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02688514484530688</v>
+        <v>0.02822341891904892</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1184,19 +1184,19 @@
         <v>7042</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3052</v>
+        <v>3496</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13100</v>
+        <v>13351</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01664289810418117</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007213826439584928</v>
+        <v>0.008262752612141261</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03095767463719375</v>
+        <v>0.03155247471522569</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1205,19 +1205,19 @@
         <v>13055</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7348</v>
+        <v>7280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19918</v>
+        <v>22053</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01440418901913739</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008107141672043515</v>
+        <v>0.008031853093737489</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02197596198577637</v>
+        <v>0.02433108469109514</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>36413</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25560</v>
+        <v>26216</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48447</v>
+        <v>49757</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0753555576046729</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05289690592410305</v>
+        <v>0.05425389182342865</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1002609232334203</v>
+        <v>0.1029723972926343</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -1255,19 +1255,19 @@
         <v>44515</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33774</v>
+        <v>33977</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56590</v>
+        <v>56396</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1052016859631025</v>
+        <v>0.1052016859631024</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07981611256640052</v>
+        <v>0.08029652892799589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1337378868835891</v>
+        <v>0.1332786483393564</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>92</v>
@@ -1276,19 +1276,19 @@
         <v>80928</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>65719</v>
+        <v>65467</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>99218</v>
+        <v>97557</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08928958557776585</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07250880469326566</v>
+        <v>0.072231077957729</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1094692844337086</v>
+        <v>0.1076367094323739</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>437378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>424747</v>
+        <v>423445</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>450274</v>
+        <v>448879</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9051475669508632</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8790080473277888</v>
+        <v>0.8763124197230855</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.931835165126775</v>
+        <v>0.9289484093625466</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>526</v>
@@ -1326,19 +1326,19 @@
         <v>371585</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>359330</v>
+        <v>359468</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>383133</v>
+        <v>383009</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8781554159327164</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8491920891995302</v>
+        <v>0.8495183400557283</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9054461145893478</v>
+        <v>0.905152897229604</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>961</v>
@@ -1347,19 +1347,19 @@
         <v>808963</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>790478</v>
+        <v>791013</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>825342</v>
+        <v>825807</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8925459530053619</v>
+        <v>0.892545953005362</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8721508954123437</v>
+        <v>0.8727405929541736</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9106171904951053</v>
+        <v>0.9111301080222338</v>
       </c>
     </row>
     <row r="13">
@@ -1454,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8562</v>
+        <v>7450</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.005086316284871277</v>
+        <v>0.005086316284871276</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0181546013211686</v>
+        <v>0.01579627889195789</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4597</v>
+        <v>5085</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007104689666009883</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02451665239745815</v>
+        <v>0.02711991439543601</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1493,19 +1493,19 @@
         <v>3731</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>742</v>
+        <v>1050</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9192</v>
+        <v>10534</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005660484637884775</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001126450427712632</v>
+        <v>0.001593074255499764</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01394552863770026</v>
+        <v>0.01598291444400833</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>27022</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18273</v>
+        <v>17558</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>39366</v>
+        <v>37705</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0572964129465226</v>
+        <v>0.05729641294652259</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03874674259364658</v>
+        <v>0.03723048370068088</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08347165700034036</v>
+        <v>0.07994816944700577</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -1543,19 +1543,19 @@
         <v>3047</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1060</v>
+        <v>923</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6136</v>
+        <v>6611</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.01625094307630236</v>
+        <v>0.01625094307630235</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.005652113948157555</v>
+        <v>0.004923779025737793</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03272429123413553</v>
+        <v>0.03525952042241636</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>33</v>
@@ -1564,19 +1564,19 @@
         <v>30069</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>20314</v>
+        <v>20304</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>41380</v>
+        <v>42756</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04562017402349691</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03082031424665311</v>
+        <v>0.03080462490534371</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06278202160875959</v>
+        <v>0.06486929805959089</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>50398</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38200</v>
+        <v>38166</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63703</v>
+        <v>64690</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1068633869235756</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0809996209332044</v>
+        <v>0.08092634222113407</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1350750146477423</v>
+        <v>0.1371669835356402</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1614,19 +1614,19 @@
         <v>17568</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12166</v>
+        <v>11240</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26242</v>
+        <v>24912</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09369502898421836</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06488499377778108</v>
+        <v>0.05994767659893599</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1399587775432501</v>
+        <v>0.1328653408752624</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -1635,19 +1635,19 @@
         <v>67966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54971</v>
+        <v>55510</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>84408</v>
+        <v>85105</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1031173731975782</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08340126806048155</v>
+        <v>0.0842191159762531</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1280640857812639</v>
+        <v>0.1291208927153339</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>391794</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>373530</v>
+        <v>374259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>407285</v>
+        <v>408112</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8307538838450308</v>
+        <v>0.8307538838450306</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7920282406422636</v>
+        <v>0.7935746960031269</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8636022194802472</v>
+        <v>0.8653546664488875</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>258</v>
@@ -1685,19 +1685,19 @@
         <v>165550</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>157290</v>
+        <v>157092</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>171894</v>
+        <v>172368</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8829493382734693</v>
+        <v>0.8829493382734692</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8388937356722262</v>
+        <v>0.8378394575119642</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9167829317820672</v>
+        <v>0.9193112549121244</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>662</v>
@@ -1706,19 +1706,19 @@
         <v>557344</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>538784</v>
+        <v>538371</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>574154</v>
+        <v>573762</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8456019681410402</v>
+        <v>0.8456019681410401</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8174430349140666</v>
+        <v>0.8168161103925181</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8711060641892063</v>
+        <v>0.8705120067291436</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>7959</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3026</v>
+        <v>2968</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18988</v>
+        <v>21496</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.00703181343638118</v>
+        <v>0.007031813436381181</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002673374459104138</v>
+        <v>0.002621963253515166</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01677647818603157</v>
+        <v>0.01899231453647676</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1831,19 +1831,19 @@
         <v>3143</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>813</v>
+        <v>977</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8165</v>
+        <v>7530</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003649155599771088</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0009439653899599704</v>
+        <v>0.001134459203850755</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.009480832866730442</v>
+        <v>0.00874371263811116</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1852,19 +1852,19 @@
         <v>11102</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5365</v>
+        <v>5616</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22628</v>
+        <v>22674</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.005570145433789471</v>
+        <v>0.005570145433789473</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002691719738518757</v>
+        <v>0.002817744024834195</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01135327435773214</v>
+        <v>0.01137634934140006</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>45069</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32578</v>
+        <v>32831</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>62755</v>
+        <v>62730</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03981925226752887</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0287834418817073</v>
+        <v>0.02900699225017843</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05544495333476489</v>
+        <v>0.05542262513542294</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -1902,19 +1902,19 @@
         <v>18682</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12106</v>
+        <v>12455</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27953</v>
+        <v>27874</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02169269029463137</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01405664337144834</v>
+        <v>0.01446239357914415</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03245805383865616</v>
+        <v>0.0323659346275681</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>68</v>
@@ -1923,19 +1923,19 @@
         <v>63751</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>49583</v>
+        <v>49418</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>82607</v>
+        <v>82673</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.03198664935214451</v>
+        <v>0.03198664935214453</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02487781856208568</v>
+        <v>0.02479530347485182</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0414472345410734</v>
+        <v>0.04148040732955187</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>129626</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>103819</v>
+        <v>105927</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>154735</v>
+        <v>156004</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1145261006135914</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09172557947014316</v>
+        <v>0.09358850745971919</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1367102493748081</v>
+        <v>0.1378314293576675</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>90</v>
@@ -1973,19 +1973,19 @@
         <v>70101</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>57216</v>
+        <v>56368</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>85279</v>
+        <v>85175</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.08139782499743024</v>
+        <v>0.08139782499743023</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06643622861854223</v>
+        <v>0.06545219766497862</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09902240941857256</v>
+        <v>0.0989019718346321</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>203</v>
@@ -1994,19 +1994,19 @@
         <v>199726</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>171220</v>
+        <v>171551</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>229045</v>
+        <v>228253</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1002111616549091</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08590824043562914</v>
+        <v>0.08607431486106812</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1149217338725207</v>
+        <v>0.1145244806813733</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>949189</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>921061</v>
+        <v>919724</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>980185</v>
+        <v>976916</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8386228336824986</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8137707941271325</v>
+        <v>0.8125899975136212</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8660076859630549</v>
+        <v>0.8631198836932797</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1112</v>
@@ -2044,19 +2044,19 @@
         <v>769286</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>751502</v>
+        <v>753107</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>783994</v>
+        <v>785192</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8932603291081673</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.872610556698293</v>
+        <v>0.8744744522991457</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.910339095511884</v>
+        <v>0.9117304240873113</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2067</v>
@@ -2065,19 +2065,19 @@
         <v>1718475</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1686046</v>
+        <v>1682457</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1750751</v>
+        <v>1748700</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8622320435591567</v>
+        <v>0.8622320435591571</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8459609696338392</v>
+        <v>0.8441600192370291</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8784264132550581</v>
+        <v>0.8773973646706557</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>6028</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2362</v>
+        <v>2202</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14932</v>
+        <v>14634</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.01061275686704082</v>
+        <v>0.01061275686704081</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004159427022337518</v>
+        <v>0.003877152155683001</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02628964500807732</v>
+        <v>0.02576571320185279</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -2190,19 +2190,19 @@
         <v>8869</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4981</v>
+        <v>4623</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15550</v>
+        <v>14542</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01067440202410394</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.005995560954911315</v>
+        <v>0.005564574714531415</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01871536475931675</v>
+        <v>0.01750246181954879</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -2211,19 +2211,19 @@
         <v>14896</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8511</v>
+        <v>8870</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23139</v>
+        <v>24449</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01064937209546479</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006084772784916167</v>
+        <v>0.006341346132559346</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01654162462436907</v>
+        <v>0.01747840369839702</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>27054</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17679</v>
+        <v>18434</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38969</v>
+        <v>40193</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04763273634377369</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03112692060228372</v>
+        <v>0.03245695534078537</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06861256053012661</v>
+        <v>0.07076695552850196</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -2261,19 +2261,19 @@
         <v>53306</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41385</v>
+        <v>41382</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68654</v>
+        <v>69739</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06415833276750496</v>
+        <v>0.06415833276750499</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04980983888036396</v>
+        <v>0.04980674803925468</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08263104940755249</v>
+        <v>0.08393701133906448</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>95</v>
@@ -2282,19 +2282,19 @@
         <v>80360</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>66118</v>
+        <v>64175</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>101567</v>
+        <v>99169</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05744840584199182</v>
+        <v>0.05744840584199181</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04726737677471055</v>
+        <v>0.04587829511938167</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07260946631503865</v>
+        <v>0.07089536464839209</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>72170</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>55831</v>
+        <v>56097</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>91010</v>
+        <v>92153</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1270678186128668</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0983004253827401</v>
+        <v>0.09876799615923849</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1602384381438011</v>
+        <v>0.1622514602670138</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>137</v>
@@ -2332,19 +2332,19 @@
         <v>98777</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>85240</v>
+        <v>83859</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>116204</v>
+        <v>116147</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1188866392718118</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1025942088407477</v>
+        <v>0.1009312883397195</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.13986158649684</v>
+        <v>0.1397933795296005</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>203</v>
@@ -2353,19 +2353,19 @@
         <v>170947</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>148305</v>
+        <v>148744</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>199085</v>
+        <v>198306</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1222084628317873</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1060221735162102</v>
+        <v>0.1063357597327438</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1423239317877884</v>
+        <v>0.1417672907909442</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>462713</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>441936</v>
+        <v>440917</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>481753</v>
+        <v>481995</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8146866881763186</v>
+        <v>0.8146866881763185</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7781048726680131</v>
+        <v>0.7763116858521815</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8482103341380871</v>
+        <v>0.8486363915792772</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1072</v>
@@ -2403,19 +2403,19 @@
         <v>669898</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>646890</v>
+        <v>648078</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>687775</v>
+        <v>689112</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.8062806259365795</v>
+        <v>0.8062806259365792</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7785884730009602</v>
+        <v>0.7800177258031189</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8277964077075748</v>
+        <v>0.8294059801452754</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1521</v>
@@ -2424,19 +2424,19 @@
         <v>1132611</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1102585</v>
+        <v>1101696</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1161418</v>
+        <v>1158526</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8096937592307563</v>
+        <v>0.809693759230756</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.788228634531872</v>
+        <v>0.7875927193212884</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8302878436106254</v>
+        <v>0.8282202672450094</v>
       </c>
     </row>
     <row r="28">
@@ -2541,19 +2541,19 @@
         <v>7340</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2712</v>
+        <v>2878</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18775</v>
+        <v>18171</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.008693719176602272</v>
+        <v>0.008693719176602274</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003212670500679263</v>
+        <v>0.003409408992642743</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.022237578517376</v>
+        <v>0.02152288618081162</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -2562,19 +2562,19 @@
         <v>7340</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2406</v>
+        <v>2852</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>17711</v>
+        <v>18220</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.006786761466932649</v>
+        <v>0.00678676146693265</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00222421436584075</v>
+        <v>0.002636815192632798</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01637580884277188</v>
+        <v>0.01684637569875963</v>
       </c>
     </row>
     <row r="30">
@@ -2591,19 +2591,19 @@
         <v>7383</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2389</v>
+        <v>1854</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19487</v>
+        <v>18192</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.03112089820340978</v>
+        <v>0.03112089820340979</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01006893718673492</v>
+        <v>0.007814450884632729</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08214355946380844</v>
+        <v>0.07668777095726169</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>49</v>
@@ -2612,19 +2612,19 @@
         <v>39685</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>28452</v>
+        <v>29477</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>54407</v>
+        <v>53463</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04700499618650734</v>
+        <v>0.04700499618650736</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03370011292189848</v>
+        <v>0.03491351717980146</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0644415778197921</v>
+        <v>0.06332321903230372</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>53</v>
@@ -2633,19 +2633,19 @@
         <v>47068</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>34841</v>
+        <v>34411</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>62385</v>
+        <v>64582</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04352083681872642</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03221499516018599</v>
+        <v>0.03181763472365286</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0576835652403823</v>
+        <v>0.05971452967854646</v>
       </c>
     </row>
     <row r="31">
@@ -2662,19 +2662,19 @@
         <v>12447</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4256</v>
+        <v>4126</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29203</v>
+        <v>27707</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05246657500789795</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01794032536257625</v>
+        <v>0.01739354390898923</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1231027836006937</v>
+        <v>0.1167933130908586</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>131</v>
@@ -2683,19 +2683,19 @@
         <v>101081</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>85311</v>
+        <v>85292</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>121788</v>
+        <v>119604</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1197247040440841</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1010452614770996</v>
+        <v>0.1010230543650119</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1442507931323411</v>
+        <v>0.1416642499721695</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>136</v>
@@ -2704,19 +2704,19 @@
         <v>113528</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>94549</v>
+        <v>94109</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>137289</v>
+        <v>135890</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1049717076454086</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08742343816084368</v>
+        <v>0.08701637813250397</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.126941685947866</v>
+        <v>0.1256482463657769</v>
       </c>
     </row>
     <row r="32">
@@ -2733,19 +2733,19 @@
         <v>217399</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>199485</v>
+        <v>198821</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>227476</v>
+        <v>227491</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9164125267886923</v>
+        <v>0.9164125267886921</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8408996608811898</v>
+        <v>0.8381020853812025</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9588932145620634</v>
+        <v>0.9589560585887367</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>973</v>
@@ -2754,19 +2754,19 @@
         <v>696174</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>674787</v>
+        <v>673148</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>718089</v>
+        <v>715559</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8245765805928064</v>
+        <v>0.8245765805928065</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7992440114400142</v>
+        <v>0.7973032445962746</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8505331098943965</v>
+        <v>0.8475368098235914</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1076</v>
@@ -2775,19 +2775,19 @@
         <v>913573</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>886882</v>
+        <v>886867</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>935442</v>
+        <v>936248</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8447206940689325</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8200415138131693</v>
+        <v>0.8200274084207466</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8649412315934074</v>
+        <v>0.865686578534637</v>
       </c>
     </row>
     <row r="33">
@@ -2879,19 +2879,19 @@
         <v>20981</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11711</v>
+        <v>11999</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>34838</v>
+        <v>34261</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.006094853177047078</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.00340202375014636</v>
+        <v>0.003485521437824498</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01011998640106616</v>
+        <v>0.009952331353637938</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>26</v>
@@ -2900,19 +2900,19 @@
         <v>21386</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>13816</v>
+        <v>14040</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>32055</v>
+        <v>34973</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005882684669721977</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003800490197293664</v>
+        <v>0.003862088917650323</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.008817356971644904</v>
+        <v>0.009620026928446967</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>43</v>
@@ -2921,19 +2921,19 @@
         <v>42367</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>29768</v>
+        <v>29688</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>58996</v>
+        <v>57868</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005985877449274561</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.004205783798441532</v>
+        <v>0.004194503164840719</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.008335307727680569</v>
+        <v>0.008175922377795864</v>
       </c>
     </row>
     <row r="35">
@@ -2950,19 +2950,19 @@
         <v>120201</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>100516</v>
+        <v>98786</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>145453</v>
+        <v>144303</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03491698126411345</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02919860946983233</v>
+        <v>0.02869624283626328</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04225234793109604</v>
+        <v>0.04191827224922701</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>162</v>
@@ -2971,19 +2971,19 @@
         <v>127409</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>106695</v>
+        <v>107938</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>148863</v>
+        <v>149192</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0350469612729097</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02934884081381983</v>
+        <v>0.02969097766294931</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04094829564714467</v>
+        <v>0.04103875484975315</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>278</v>
@@ -2992,19 +2992,19 @@
         <v>247610</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>216976</v>
+        <v>220146</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>279460</v>
+        <v>279330</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03498374266161314</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0306554958319574</v>
+        <v>0.0311034092255411</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03948357996634926</v>
+        <v>0.03946533719662011</v>
       </c>
     </row>
     <row r="36">
@@ -3021,19 +3021,19 @@
         <v>333211</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>296379</v>
+        <v>296481</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>375021</v>
+        <v>372608</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09679409824684347</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08609461635063571</v>
+        <v>0.08612445171675985</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1089392957190976</v>
+        <v>0.1082384609452431</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>470</v>
@@ -3042,19 +3042,19 @@
         <v>357949</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>327907</v>
+        <v>326115</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>391894</v>
+        <v>390113</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09846216983633022</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09019852638138506</v>
+        <v>0.0897056340640766</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1077996502400148</v>
+        <v>0.1073096405054632</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>773</v>
@@ -3063,19 +3063,19 @@
         <v>691160</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>644484</v>
+        <v>640830</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>742955</v>
+        <v>745188</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0976508668489925</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09105621443246854</v>
+        <v>0.09053991273905999</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1049687533797033</v>
+        <v>0.1052842981947347</v>
       </c>
     </row>
     <row r="37">
@@ -3092,19 +3092,19 @@
         <v>2968082</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2921289</v>
+        <v>2920676</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3012809</v>
+        <v>3008400</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.862194067311996</v>
+        <v>0.8621940673119961</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8486011860595458</v>
+        <v>0.8484230690535459</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8751865171988412</v>
+        <v>0.8739057344166773</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4586</v>
@@ -3113,19 +3113,19 @@
         <v>3128649</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3090636</v>
+        <v>3088346</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3164951</v>
+        <v>3165583</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.8606081842210381</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8501518231600539</v>
+        <v>0.8495220172512536</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8705938991758515</v>
+        <v>0.8707677948773971</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>7450</v>
@@ -3134,19 +3134,19 @@
         <v>6096731</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6041853</v>
+        <v>6034527</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6158080</v>
+        <v>6153190</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.8613795130401197</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8536260455629424</v>
+        <v>0.8525909313771883</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8700472297283361</v>
+        <v>0.8693562806305718</v>
       </c>
     </row>
     <row r="38">
